--- a/hdi2016.xlsx
+++ b/hdi2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
+    <workbookView xWindow="-30620" yWindow="-5840" windowWidth="28800" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A190" sqref="A190:XFD258"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
